--- a/inst/extdata/infiltration_template.xlsx
+++ b/inst/extdata/infiltration_template.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sccwrp.sharepoint.com/sites/Staff/Shared Documents/P Drive/Data/DuyNguyen/Projects/bmp-hydrology-calculator/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_69B14D2D7ECD495B2FBE795DDD970AF76451AD6D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B946084D-72D2-4276-810A-CCD4F5D816DD}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_69B14D2D7ECD495B2FBE795DDD970AF76451AD6D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{836E81C9-80E7-484C-95B3-73083514DA68}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Storm Event 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Storm Event 2" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,15 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>datetime</t>
   </si>
   <si>
     <t>2021-12-14 05:14:00</t>
-  </si>
-  <si>
-    <t>DELETE THIS ROW TOO. It's only here for your preference what datatype that the app expects for each column</t>
   </si>
   <si>
     <t>Piezometer A</t>
@@ -55,6 +53,18 @@
   </si>
   <si>
     <t>Piezometer C</t>
+  </si>
+  <si>
+    <t>Delete this row too. It's only here for your preference what datatype that the app expects for each column. Please DO NOT delete/rename the datetime column</t>
+  </si>
+  <si>
+    <t>Sensor A</t>
+  </si>
+  <si>
+    <t>Sensor B</t>
+  </si>
+  <si>
+    <t>Sensor C</t>
   </si>
 </sst>
 </file>
@@ -425,7 +435,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AA0D0C-9576-42E0-B206-BB50AFF0F4EA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -440,11 +452,11 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +464,7 @@
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="3" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="146.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -460,13 +472,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -483,12 +495,64 @@
         <v>23.75</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AA02F9-74E8-4B1F-B780-555BEF4CA6AF}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="146.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>50.17</v>
+      </c>
+      <c r="C2" s="4">
+        <v>24.88</v>
+      </c>
+      <c r="D2" s="4">
+        <v>23.75</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -767,15 +831,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2">
@@ -787,6 +842,15 @@
     <OldForms xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -810,14 +874,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F491C895-60B5-42FC-B899-C02C4CA1FC39}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1D4CCFB-8D37-4996-95ED-94B4EFCE2A00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -835,4 +891,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F491C895-60B5-42FC-B899-C02C4CA1FC39}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/extdata/infiltration_template.xlsx
+++ b/inst/extdata/infiltration_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sccwrp.sharepoint.com/sites/Staff/Shared Documents/P Drive/Data/DuyNguyen/Projects/bmp-hydrology-calculator/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="11_69B14D2D7ECD495B2FBE795DDD970AF76451AD6D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{836E81C9-80E7-484C-95B3-73083514DA68}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="11_69B14D2D7ECD495B2FBE795DDD970AF76451AD6D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28F8ACE6-FD7B-4E08-B131-C067E2ABF7E5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
@@ -146,6 +146,159 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB4D94E-7465-7F5A-59D2-B9B44F90DA74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="285750"/>
+          <a:ext cx="8191500" cy="4495800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Using this Application (Infiltration)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>It is required that the column names and tab names in the templates remain unchanged.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>**Infiltration Analysis:**</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Infiltration data should be copied and pasted from your datasheet into the downloaded data template. This application can accommodate infiltration measurements over time from multiple infiltration points if needed. Refer to the Methods tab for an illustration of how infiltration data should be structured. A user can submit infiltration data for one or more events in a single file, as long as timestamps and values are continuous and without skipping records.a</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>1. Download infiltration template</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>2. Download infiltration demo data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>**Data Requirements**</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>The uploaded Excel spreadsheet must conform to the following requirements:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>1. Infiltration must be reported in unit per hour. **Data must be in the same unit across all tabs.**</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>2. The timestamp should be in 24-hour format (mm/dd/yy hh:mm:ss).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>3. Each tab must contain a column called datetime</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>4. You can put the data for multiple sensors in other columns, but you need to make sure the column names are unique, and they need to contain numeric data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,13 +588,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AA0D0C-9576-42E0-B206-BB50AFF0F4EA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -456,7 +610,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AA02F9-74E8-4B1F-B780-555BEF4CA6AF}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -557,6 +711,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <OldForms xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0FD75001275F4DBA43EB7BE58C8A34" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="75e20f4bf570a29fdd68b6ac0ce9f23e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="02ea596c-bf3f-4512-ad68-024a720c79b2" xmlns:ns3="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d8333fcdd8157586878df4d15f204f2" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -830,45 +1007,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <OldForms xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A82D7F8-5970-4F6A-961A-01A1BC242751}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F491C895-60B5-42FC-B899-C02C4CA1FC39}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="02ea596c-bf3f-4512-ad68-024a720c79b2"/>
-    <ds:schemaRef ds:uri="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -894,9 +1036,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F491C895-60B5-42FC-B899-C02C4CA1FC39}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A82D7F8-5970-4F6A-961A-01A1BC242751}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="02ea596c-bf3f-4512-ad68-024a720c79b2"/>
+    <ds:schemaRef ds:uri="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/extdata/infiltration_template.xlsx
+++ b/inst/extdata/infiltration_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sccwrp.sharepoint.com/sites/Staff/Shared Documents/P Drive/Data/DuyNguyen/Projects/bmp-hydrology-calculator/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="11_69B14D2D7ECD495B2FBE795DDD970AF76451AD6D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28F8ACE6-FD7B-4E08-B131-C067E2ABF7E5}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="11_69B14D2D7ECD495B2FBE795DDD970AF76451AD6D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EDC1AAE-24A9-4061-B52B-9F29EE2EA528}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,54 +211,36 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>Using this Application (Infiltration)</a:t>
+            <a:t>Infiltration data should be copied and pasted from your datasheet into the downloaded data template. This application can accommodate infiltration measurements over time from multiple infiltration points if needed. Refer to the Methods tab for an illustration of how infiltration data should be structured. A user can submit infiltration data for one or more events in a single file, as long as timestamps and values are continuous and without skipping records.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>It is required that the column names and tab names in the templates remain unchanged.</a:t>
+            <a:t>- Download infiltration demo data</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>**Infiltration Analysis:**</a:t>
+            <a:t>- Download infiltration template</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>Infiltration data should be copied and pasted from your datasheet into the downloaded data template. This application can accommodate infiltration measurements over time from multiple infiltration points if needed. Refer to the Methods tab for an illustration of how infiltration data should be structured. A user can submit infiltration data for one or more events in a single file, as long as timestamps and values are continuous and without skipping records.a</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>1. Download infiltration template</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>2. Download infiltration demo data</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>**Data Requirements**</a:t>
+            <a:t>**Data Requirements:**</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -289,6 +271,12 @@
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
             <a:t>4. You can put the data for multiple sensors in other columns, but you need to make sure the column names are unique, and they need to contain numeric data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>5. **The column names and the tab names must not be changed from the template**.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -589,7 +577,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,29 +699,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <OldForms xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0FD75001275F4DBA43EB7BE58C8A34" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="75e20f4bf570a29fdd68b6ac0ce9f23e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="02ea596c-bf3f-4512-ad68-024a720c79b2" xmlns:ns3="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d8333fcdd8157586878df4d15f204f2" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1007,10 +972,45 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <OldForms xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F491C895-60B5-42FC-B899-C02C4CA1FC39}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A82D7F8-5970-4F6A-961A-01A1BC242751}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="02ea596c-bf3f-4512-ad68-024a720c79b2"/>
+    <ds:schemaRef ds:uri="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1036,21 +1036,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A82D7F8-5970-4F6A-961A-01A1BC242751}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F491C895-60B5-42FC-B899-C02C4CA1FC39}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="02ea596c-bf3f-4512-ad68-024a720c79b2"/>
-    <ds:schemaRef ds:uri="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/extdata/infiltration_template.xlsx
+++ b/inst/extdata/infiltration_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sccwrp.sharepoint.com/sites/Staff/Shared Documents/P Drive/Data/DuyNguyen/Projects/bmp-hydrology-calculator/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_69B14D2D7ECD495B2FBE795DDD970AF76451AD6D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EDC1AAE-24A9-4061-B52B-9F29EE2EA528}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="11_69B14D2D7ECD495B2FBE795DDD970AF76451AD6D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47816CB4-D063-43C8-B454-5B7F85866EC5}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
@@ -152,16 +152,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -176,8 +176,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3295650" y="285750"/>
-          <a:ext cx="8191500" cy="4495800"/>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="10572750" cy="6362700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -211,76 +211,133 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>Infiltration data should be copied and pasted from your datasheet into the downloaded data template. This application can accommodate infiltration measurements over time from multiple infiltration points if needed. Refer to the Methods tab for an illustration of how infiltration data should be structured. A user can submit infiltration data for one or more events in a single file, as long as timestamps and values are continuous and without skipping records.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>- Download infiltration demo data</a:t>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The Infiltration Analysis calculator estimates the average infiltration rate across the soil-water interface for a given storm event by analyzing changes in ponding depth. Once storm runoff inflow ceases, the decline in ponding depth due to infiltration appears as the recession limb on a timeseries plot. This portion of the curve can be fitted to a characteristic curve to determine the infiltration rate.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>- Download infiltration template</a:t>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>To use the Infiltration Analysis calculator, ponding depth data should be copied from your datasheet and pasted into the downloaded data template. Users may submit depth data from multiple sensors (e.g., pressure transducers, piezometers, etc.) for the same storm event within a single tab of the file. Additionally, data from multiple storm events can be included in a single file by using separate tabs to delineate each event.</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" sz="1400"/>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Download infiltration demo data</a:t>
+          </a:r>
         </a:p>
         <a:p>
+          <a:pPr lvl="0"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>**Data Requirements:**</a:t>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Download infiltration template</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>The uploaded Excel spreadsheet must conform to the following requirements:</a:t>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Data Requirements:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> The data sheet contains at least 2 worksheets: instructions and an additional worksheet for each individual infiltration event. The uploaded Excel spreadsheet must conform to the following requirements:</a:t>
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr lvl="0"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>1. Infiltration must be reported in unit per hour. **Data must be in the same unit across all tabs.**</a:t>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Timestamps should be in 24-hour format (mm/dd/yy hh:mm:ss).</a:t>
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr lvl="0"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>2. The timestamp should be in 24-hour format (mm/dd/yy hh:mm:ss).</a:t>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>For each infiltration event, the first column contains the datetimes of each water depth measurement. Enter water level data on adjacent columns from one or more sensors that share the same timestamp. Label each column with a unique name (e.g. the sensor identifier). Depth should be recorded as the numeric value only; the unit of measurement (mm, cm, in) can be selected from the dropdown menu.</a:t>
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr lvl="0"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>3. Each tab must contain a column called datetime</a:t>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Data from multiple storm events can also be submitted in a single file by using separate worksheets for each event. In this case, all data across tabs must use the same unit of measurement, and each tab must include a timestamp column labeled datetime.</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>4. You can put the data for multiple sensors in other columns, but you need to make sure the column names are unique, and they need to contain numeric data</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>5. **The column names and the tab names must not be changed from the template**.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -577,7 +634,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,8 +756,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0FD75001275F4DBA43EB7BE58C8A34" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="75e20f4bf570a29fdd68b6ac0ce9f23e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="02ea596c-bf3f-4512-ad68-024a720c79b2" xmlns:ns3="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d8333fcdd8157586878df4d15f204f2" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0FD75001275F4DBA43EB7BE58C8A34" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cdbf04b8ff6af1f1edbadfc0fb707b99">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="02ea596c-bf3f-4512-ad68-024a720c79b2" xmlns:ns3="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f194f4ff1faacf22d916baffc85e0afb" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="02ea596c-bf3f-4512-ad68-024a720c79b2"/>
     <xsd:import namespace="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
@@ -729,6 +786,7 @@
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns2:OldForms" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -829,6 +887,11 @@
         <xsd:restriction base="dms:Text">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="28" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -973,6 +1036,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2">
@@ -986,36 +1058,19 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A82D7F8-5970-4F6A-961A-01A1BC242751}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CC7A7A9-57B5-4146-908A-BC0D99AD0981}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F491C895-60B5-42FC-B899-C02C4CA1FC39}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="02ea596c-bf3f-4512-ad68-024a720c79b2"/>
-    <ds:schemaRef ds:uri="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1D4CCFB-8D37-4996-95ED-94B4EFCE2A00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1033,12 +1088,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F491C895-60B5-42FC-B899-C02C4CA1FC39}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/extdata/infiltration_template.xlsx
+++ b/inst/extdata/infiltration_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sccwrp.sharepoint.com/sites/Staff/Shared Documents/P Drive/Data/DuyNguyen/Projects/bmp-hydrology-calculator/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="11_69B14D2D7ECD495B2FBE795DDD970AF76451AD6D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47816CB4-D063-43C8-B454-5B7F85866EC5}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_69B14D2D7ECD495B2FBE795DDD970AF76451AD6D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53E4592C-4A16-4F4C-80EB-9DAC7C7EA377}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
@@ -338,6 +338,52 @@
             </a:rPr>
             <a:t>Data from multiple storm events can also be submitted in a single file by using separate worksheets for each event. In this case, all data across tabs must use the same unit of measurement, and each tab must include a timestamp column labeled datetime.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Data cannot exceed 45000 rows.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -756,6 +802,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0FD75001275F4DBA43EB7BE58C8A34" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cdbf04b8ff6af1f1edbadfc0fb707b99">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="02ea596c-bf3f-4512-ad68-024a720c79b2" xmlns:ns3="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f194f4ff1faacf22d916baffc85e0afb" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1035,15 +1090,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1059,13 +1105,29 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CC7A7A9-57B5-4146-908A-BC0D99AD0981}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F491C895-60B5-42FC-B899-C02C4CA1FC39}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CC7A7A9-57B5-4146-908A-BC0D99AD0981}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="02ea596c-bf3f-4512-ad68-024a720c79b2"/>
+    <ds:schemaRef ds:uri="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/inst/extdata/infiltration_template.xlsx
+++ b/inst/extdata/infiltration_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sccwrp.sharepoint.com/sites/Staff/Shared Documents/P Drive/Data/DuyNguyen/Projects/bmp-hydrology-calculator/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_69B14D2D7ECD495B2FBE795DDD970AF76451AD6D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53E4592C-4A16-4F4C-80EB-9DAC7C7EA377}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="11_69B14D2D7ECD495B2FBE795DDD970AF76451AD6D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEF5A569-A64F-4BAD-B4D0-CF865902161B}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
@@ -367,7 +367,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Data cannot exceed 45000 rows.</a:t>
+            <a:t>Data cannot exceed 45000 rows per</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> worksheet</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600">
             <a:effectLst/>
@@ -680,7 +704,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,6 +835,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <OldForms xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0FD75001275F4DBA43EB7BE58C8A34" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cdbf04b8ff6af1f1edbadfc0fb707b99">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="02ea596c-bf3f-4512-ad68-024a720c79b2" xmlns:ns3="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f194f4ff1faacf22d916baffc85e0afb" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1090,20 +1128,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <OldForms xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F491C895-60B5-42FC-B899-C02C4CA1FC39}">
   <ds:schemaRefs>
@@ -1113,6 +1137,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1D4CCFB-8D37-4996-95ED-94B4EFCE2A00}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="15351079-27be-49c5-816a-0df13826569b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dcf826ae-ce52-4e0f-987a-3ae5dcf3d3c6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="02ea596c-bf3f-4512-ad68-024a720c79b2"/>
+    <ds:schemaRef ds:uri="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CC7A7A9-57B5-4146-908A-BC0D99AD0981}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1130,24 +1174,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1D4CCFB-8D37-4996-95ED-94B4EFCE2A00}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="15351079-27be-49c5-816a-0df13826569b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dcf826ae-ce52-4e0f-987a-3ae5dcf3d3c6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="02ea596c-bf3f-4512-ad68-024a720c79b2"/>
-    <ds:schemaRef ds:uri="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>